--- a/content/presentations/CincyDayOfAgile2011-ProposalTemplate.xlsx
+++ b/content/presentations/CincyDayOfAgile2011-ProposalTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="580" windowWidth="27360" windowHeight="21100" activeTab="2"/>
+    <workbookView xWindow="1680" yWindow="585" windowWidth="27360" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks, Levels and Other Info" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,11 @@
   </sheets>
   <definedNames>
     <definedName name="Abstracts">Abstracts!$A$2:$F$22</definedName>
-    <definedName name="Bio">Biographical!$A$2:$B$18</definedName>
-    <definedName name="Levels">'Tracks, Levels and Other Info'!$A$16:$A$19</definedName>
-    <definedName name="Tracks">'Tracks, Levels and Other Info'!$C$22:$C$27</definedName>
+    <definedName name="Bio">Biographical!$A$2:$B$19</definedName>
+    <definedName name="Levels">'Tracks, Levels and Other Info'!$A$17:$A$20</definedName>
+    <definedName name="Tracks">'Tracks, Levels and Other Info'!$A$11:$A$12</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Regional Director</t>
   </si>
   <si>
-    <t>MVP</t>
-  </si>
-  <si>
     <t>Book author</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>Bio</t>
   </si>
   <si>
-    <t>Why do you want to speak at DevTeach?</t>
-  </si>
-  <si>
-    <t>Session levels</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -98,20 +89,92 @@
     <t>Bio Word Count</t>
   </si>
   <si>
-    <t>An introduction and advanced track is being planned so aim your presentations at one of those levels.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abstracts must be submitted by </t>
   </si>
   <si>
-    <t>February 28th to be considered for selection.</t>
+    <t>This edition of Cincinnati Day of Agile will have two presentation tracks.</t>
+  </si>
+  <si>
+    <t>Firestarter</t>
+  </si>
+  <si>
+    <t>The firestarter track is designed for those who are brand new to agile, have some experience with agile, or have read material but never been involved with an agile team</t>
+  </si>
+  <si>
+    <t>Experienced</t>
+  </si>
+  <si>
+    <t>The experienced track is for presentations targeting attendees who have agile axperience and are looking to take it to the next level.</t>
+  </si>
+  <si>
+    <t>Session Tracks</t>
+  </si>
+  <si>
+    <t>Session Levels</t>
+  </si>
+  <si>
+    <t>The firestarter track should all be 100 level talks.  The Experienced track can vary from 200-400 level talks.</t>
+  </si>
+  <si>
+    <t>Targeted Attendee</t>
+  </si>
+  <si>
+    <t>Never heard of the topic.  Show me what to do.</t>
+  </si>
+  <si>
+    <t>Heard of it, doing it, but I just started, and I'm not sure that I am doing it right.</t>
+  </si>
+  <si>
+    <t>Doing it, and it works, but now I'm ready for the next level.</t>
+  </si>
+  <si>
+    <t>We're rocking agile everywhere we turn.  Hook up the firehose so I can absorb what you are going to tell me.</t>
+  </si>
+  <si>
+    <t>Microsoft MVP</t>
+  </si>
+  <si>
+    <t>Book Title(s)</t>
+  </si>
+  <si>
+    <t>Please attach a photo with this submission document</t>
+  </si>
+  <si>
+    <t>Why do you want to speak at the Cincinnati Day of Agile?</t>
+  </si>
+  <si>
+    <t>Submission Process</t>
+  </si>
+  <si>
+    <t>Feel free to submit as many abstracts as you like.  After filling this document out, and submitting it, please resend the entire document with all abstracts you would like to submit as we will be doing a flush and fill with a new file arriving.</t>
+  </si>
+  <si>
+    <t>speakers@dayofagile.org</t>
+  </si>
+  <si>
+    <t>Please have all session abstracts submitted by:</t>
+  </si>
+  <si>
+    <t>February 12, 2011</t>
+  </si>
+  <si>
+    <t>February 12th to be considered for selection.</t>
+  </si>
+  <si>
+    <t>Submission Guidelines</t>
+  </si>
+  <si>
+    <t>Please make certain your abstracts accurately describe what you talk is going to cover and what the benefit to the attendee is.  Presentations on specific languages don't show what we are trying to accomplish, but presentations on how to do T/BDD that use a certain language to show the concepts are appropriate.  Additionally, we are looking to case studies and real world successes or failures (as long as the failure is the teaching mechanism for gaining skills in agile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please send all submissions and questions to </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,12 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -178,18 +235,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -238,61 +344,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -308,7 +381,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -322,6 +394,50 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -337,6 +453,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3724275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="incinnati Day of Agile"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6067425" y="0"/>
+          <a:ext cx="1771650" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,230 +801,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
-    <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="4" t="s">
+      <c r="B12" s="30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="18">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="18">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="18">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="18">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="7.5" customHeight="1">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="7.5" customHeight="1"/>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" ht="54.75" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="45" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" ht="7.5" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" ht="7.5" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" ht="7.5" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="22"/>
-    </row>
-    <row r="50" spans="1:1" ht="15">
-      <c r="A50" s="22"/>
-    </row>
-    <row r="51" spans="1:1" ht="15">
-      <c r="A51" s="22"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="15" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>200</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>300</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>400</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A11:C18">
     <sortCondition ref="C11:C18"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -859,131 +1086,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="112" style="24" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="1" width="19.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="112" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="34"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="25" t="s">
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="20"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="34"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="34"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="34"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="25" t="s">
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="25" t="s">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="25" t="s">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="34"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="25" t="s">
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:2" ht="45" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="35"/>
-    </row>
-    <row r="16" spans="1:2" ht="45" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="35"/>
-    </row>
-    <row r="17" spans="1:2" ht="165.75" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="35"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="28">
-        <f>IF(LEN(TRIM(B17))=0, 0, LEN(B17)-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17,". ","¿")," ",""),CHAR(10),""),";",""),".",""),",",""),":","")))</f>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="15">
+        <f>IF(LEN(TRIM(B18))=0, 0, LEN(B18)-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B18,". ","¿")," ",""),CHAR(10),""),";",""),".",""),",",""),":","")))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please select yes or no" sqref="B11:B13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="Please select yes or no" sqref="B11:B14">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1004,318 +1239,318 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="46.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="29"/>
-    <col min="4" max="4" width="37.1640625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="82.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="29"/>
+    <col min="1" max="1" width="11.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="82.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1">
-      <c r="A3" s="32">
+    </row>
+    <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="33">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="19">
         <f>IF(LEN(TRIM(E3))=0, 0, LEN(E3)-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3,". ","¿")," ",""),CHAR(10),""),";",""),".",""),",",""),":","")))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" customHeight="1">
-      <c r="A4" s="32">
+    <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="33">
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="19">
         <f t="shared" ref="F4:F22" si="0">IF(LEN(TRIM(E4))=0, 0, LEN(E4)-LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E4,". ","¿")," ",""),CHAR(10),""),";",""),".",""),",",""),":","")))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" customHeight="1">
-      <c r="A5" s="32">
+    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <f t="shared" ref="A5:A22" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" customHeight="1">
-      <c r="A6" s="32">
+      <c r="B5" s="33"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" customHeight="1">
-      <c r="A7" s="32">
+      <c r="B6" s="33"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" customHeight="1">
-      <c r="A8" s="32">
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" customHeight="1">
-      <c r="A9" s="32">
+      <c r="B8" s="33"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" customHeight="1">
-      <c r="A10" s="32">
+      <c r="B9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" customHeight="1">
-      <c r="A11" s="32">
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1">
-      <c r="A12" s="32">
+      <c r="B11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" customHeight="1">
-      <c r="A13" s="32">
+      <c r="B12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" customHeight="1">
-      <c r="A14" s="32">
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" customHeight="1">
-      <c r="A15" s="32">
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" customHeight="1">
-      <c r="A16" s="32">
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" customHeight="1">
-      <c r="A17" s="32">
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" customHeight="1">
-      <c r="A18" s="32">
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" customHeight="1">
-      <c r="A19" s="32">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" customHeight="1">
-      <c r="A20" s="32">
+      <c r="B19" s="33"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" customHeight="1">
-      <c r="A21" s="32">
+      <c r="B20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" customHeight="1">
-      <c r="A22" s="32">
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="33">
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
